--- a/Experiments/Part2-Mix/Mix-DocPop-PeerSim.xlsx
+++ b/Experiments/Part2-Mix/Mix-DocPop-PeerSim.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8920" yWindow="2520" windowWidth="37240" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>Setting1</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>Tast1(avg)</t>
-  </si>
-  <si>
-    <t>Setting1-DocLikes</t>
   </si>
 </sst>
 </file>
@@ -660,11 +657,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2138417624"/>
-        <c:axId val="2111418904"/>
+        <c:axId val="2112785320"/>
+        <c:axId val="2097163640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2138417624"/>
+        <c:axId val="2112785320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -673,7 +670,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111418904"/>
+        <c:crossAx val="2097163640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -681,7 +678,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2111418904"/>
+        <c:axId val="2097163640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -692,7 +689,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2138417624"/>
+        <c:crossAx val="2112785320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1280,11 +1277,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2135700120"/>
-        <c:axId val="2138701256"/>
+        <c:axId val="2112673800"/>
+        <c:axId val="2112862504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2135700120"/>
+        <c:axId val="2112673800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1293,7 +1290,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2138701256"/>
+        <c:crossAx val="2112862504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1301,7 +1298,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2138701256"/>
+        <c:axId val="2112862504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1312,7 +1309,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135700120"/>
+        <c:crossAx val="2112673800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1359,11 +1356,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$1:$H$2</c:f>
+              <c:f>Sheet1!$J$1:$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Setting1-DocLikes Tast1(avg)</c:v>
+                  <c:v>Setting2-DocLikes Tast1(avg)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1373,249 +1370,249 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$3:$H$87</c:f>
+              <c:f>Sheet1!$J$3:$J$88</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
-                  <c:v>1.1255</c:v>
+                  <c:v>0.534</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2805</c:v>
+                  <c:v>1.424</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6455</c:v>
+                  <c:v>2.398000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9475</c:v>
+                  <c:v>3.4155</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1565</c:v>
+                  <c:v>4.512499999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4655</c:v>
+                  <c:v>5.5755</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.858</c:v>
+                  <c:v>6.596000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.324</c:v>
+                  <c:v>7.635999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.986499999999999</c:v>
+                  <c:v>8.686499999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.814</c:v>
+                  <c:v>9.784000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.658499999999999</c:v>
+                  <c:v>10.87</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.4825</c:v>
+                  <c:v>11.907</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.280500000000001</c:v>
+                  <c:v>12.9355</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.984</c:v>
+                  <c:v>13.972</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.7425</c:v>
+                  <c:v>14.988</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.4995</c:v>
+                  <c:v>15.9945</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.173</c:v>
+                  <c:v>17.001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.7965</c:v>
+                  <c:v>17.961</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.379</c:v>
+                  <c:v>18.97</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.9335</c:v>
+                  <c:v>19.995</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12.5115</c:v>
+                  <c:v>21.0165</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>13.1015</c:v>
+                  <c:v>21.9635</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>13.6815</c:v>
+                  <c:v>22.908</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>14.204</c:v>
+                  <c:v>23.9</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>14.696</c:v>
+                  <c:v>24.8625</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>15.223</c:v>
+                  <c:v>25.8555</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>15.807</c:v>
+                  <c:v>26.862</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>16.4385</c:v>
+                  <c:v>27.8095</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>17.0315</c:v>
+                  <c:v>28.8185</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>17.6185</c:v>
+                  <c:v>29.7565</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>18.1515</c:v>
+                  <c:v>30.728</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>18.7015</c:v>
+                  <c:v>31.6415</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>19.357</c:v>
+                  <c:v>32.5645</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>20.0375</c:v>
+                  <c:v>33.468</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>20.6655</c:v>
+                  <c:v>34.33800000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>21.3485</c:v>
+                  <c:v>35.2035</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>21.933</c:v>
+                  <c:v>36.0345</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>22.5315</c:v>
+                  <c:v>36.8775</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>23.094</c:v>
+                  <c:v>37.73299999999998</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>23.7075</c:v>
+                  <c:v>38.45</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>24.2905</c:v>
+                  <c:v>39.1335</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>24.9345</c:v>
+                  <c:v>39.7115</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>25.4945</c:v>
+                  <c:v>40.224</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>26.109</c:v>
+                  <c:v>40.679</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>26.6915</c:v>
+                  <c:v>40.988</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>27.3165</c:v>
+                  <c:v>41.211</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>27.9755</c:v>
+                  <c:v>41.394</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>28.5795</c:v>
+                  <c:v>41.5285</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>29.277</c:v>
+                  <c:v>41.666</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>29.939</c:v>
+                  <c:v>41.7625</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>30.659</c:v>
+                  <c:v>41.854</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>31.387</c:v>
+                  <c:v>41.918</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>32.08</c:v>
+                  <c:v>41.95</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>32.9075</c:v>
+                  <c:v>41.984</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>33.7525</c:v>
+                  <c:v>41.989</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>34.589</c:v>
+                  <c:v>41.993</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>35.4615</c:v>
+                  <c:v>41.9965</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>36.42549999999998</c:v>
+                  <c:v>41.999</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>37.536</c:v>
+                  <c:v>41.999</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>38.693</c:v>
+                  <c:v>41.999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>39.866</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>41.0445</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>42.1635</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>43.382</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>44.548</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>45.7555</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>46.9405</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>48.144</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>49.3495</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>50.3785</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>51.35600000000001</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>52.1105</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>52.7375</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>53.2155</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>53.563</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>53.78150000000001</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>53.9135</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>53.9695</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>54.0</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>54.0</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1627,11 +1624,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$1:$I$2</c:f>
+              <c:f>Sheet1!$K$1:$K$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Setting1-DocLikes Taste0(avg)</c:v>
+                  <c:v>Setting2-DocLikes Taste0(avg)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1641,249 +1638,249 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$3:$I$87</c:f>
+              <c:f>Sheet1!$K$3:$K$88</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
-                  <c:v>0.07</c:v>
+                  <c:v>0.072</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.134</c:v>
+                  <c:v>0.0735</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.256</c:v>
+                  <c:v>0.0735</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.0735</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0735</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0735</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0735</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0735</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0735</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0735</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0735</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0735</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0735</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.075</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.078</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0905</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.107</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.118</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1435</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.1675</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.197</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.243</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.2875</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.331</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0.3745</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.49</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.6195</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7465</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.8655</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1315</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.2755</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.4245</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.5295</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.6605</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.77</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.8995</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.0695</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.1835</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.2865</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.4145</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.537999999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.676</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.8125</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.937</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.05</c:v>
-                </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.1525</c:v>
+                  <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.2505</c:v>
+                  <c:v>0.442</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.3665</c:v>
+                  <c:v>0.485</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.483499999999999</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.588</c:v>
+                  <c:v>0.55</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7145</c:v>
+                  <c:v>0.598</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.806</c:v>
+                  <c:v>0.662</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.9135</c:v>
+                  <c:v>0.732</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.029500000000001</c:v>
+                  <c:v>0.802</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.121499999999999</c:v>
+                  <c:v>0.869</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.2155</c:v>
+                  <c:v>0.9505</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.325</c:v>
+                  <c:v>1.048</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.4215</c:v>
+                  <c:v>1.154</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.527</c:v>
+                  <c:v>1.2805</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.6385</c:v>
+                  <c:v>1.4325</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.724500000000001</c:v>
+                  <c:v>1.5545</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.829500000000001</c:v>
+                  <c:v>1.748</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.9125</c:v>
+                  <c:v>2.017</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.004</c:v>
+                  <c:v>2.2745</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.091</c:v>
+                  <c:v>2.5585</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5.168</c:v>
+                  <c:v>2.8925</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.276</c:v>
+                  <c:v>3.259999999999999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.334</c:v>
+                  <c:v>3.684</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.410500000000001</c:v>
+                  <c:v>4.103499999999999</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.48</c:v>
+                  <c:v>4.5125</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.5435</c:v>
+                  <c:v>4.9375</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5.614999999999999</c:v>
+                  <c:v>5.372999999999999</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5.683</c:v>
+                  <c:v>5.7975</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5.721499999999999</c:v>
+                  <c:v>6.2115</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5.775</c:v>
+                  <c:v>6.673999999999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5.815</c:v>
+                  <c:v>7.084000000000001</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5.8445</c:v>
+                  <c:v>7.5485</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.865</c:v>
+                  <c:v>7.967999999999999</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.883</c:v>
+                  <c:v>8.413</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5.904</c:v>
+                  <c:v>8.833000000000001</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5.9255</c:v>
+                  <c:v>9.285</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5.943500000000001</c:v>
+                  <c:v>9.7575</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5.962000000000001</c:v>
+                  <c:v>10.2125</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>5.968999999999999</c:v>
+                  <c:v>10.695</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>5.976</c:v>
+                  <c:v>11.2075</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>5.979</c:v>
+                  <c:v>11.66</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>5.988</c:v>
+                  <c:v>12.1125</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>5.991</c:v>
+                  <c:v>12.56</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5.993</c:v>
+                  <c:v>13.0025</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>5.9935</c:v>
+                  <c:v>13.4275</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5.994</c:v>
+                  <c:v>13.9125</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5.996</c:v>
+                  <c:v>14.3575</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5.997</c:v>
+                  <c:v>14.7425</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>6.0</c:v>
+                  <c:v>15.165</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>6.0</c:v>
+                  <c:v>15.6175</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>6.0</c:v>
+                  <c:v>16.035</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>6.0</c:v>
+                  <c:v>16.485</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>6.0</c:v>
+                  <c:v>16.925</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>6.0</c:v>
+                  <c:v>17.4675</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>6.0</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1900,20 +1897,39 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2111079432"/>
-        <c:axId val="2111639544"/>
+        <c:axId val="2112149256"/>
+        <c:axId val="2112737688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2111079432"/>
+        <c:axId val="2112149256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111639544"/>
+        <c:crossAx val="2112737688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1921,638 +1937,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2111639544"/>
+        <c:axId val="2112737688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Document Likes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111079432"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$L$1:$L$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Setting2-DocLikes Tast1(avg)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$3:$L$88</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="86"/>
-                <c:pt idx="0">
-                  <c:v>0.534</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.424</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.398000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.4155</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.512499999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.5755</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.596000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.635999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.686499999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.784000000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.87</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11.907</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12.9355</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13.972</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14.988</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15.9945</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17.001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17.961</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18.97</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19.995</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21.0165</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21.9635</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22.908</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23.9</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24.8625</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25.8555</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26.862</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27.8095</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28.8185</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29.7565</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30.728</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31.6415</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32.5645</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33.468</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34.33800000000001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35.2035</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36.0345</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>36.8775</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>37.73299999999998</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>38.45</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>39.1335</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>39.7115</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>40.224</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>40.679</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>40.988</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>41.211</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>41.394</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>41.5285</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>41.666</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>41.7625</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>41.854</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>41.918</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>41.95</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>41.984</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>41.989</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>41.993</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>41.9965</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>41.999</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>41.999</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>41.999</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>42.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$M$1:$M$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Setting2-DocLikes Taste0(avg)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$M$3:$M$88</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="86"/>
-                <c:pt idx="0">
-                  <c:v>0.072</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0735</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0735</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0735</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0735</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0735</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0735</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0735</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0735</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0735</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0735</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0735</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.0735</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.075</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.078</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.0905</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.107</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.118</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.1435</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.1675</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.197</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.243</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.2875</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.331</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.3745</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.41</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.442</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.485</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.51</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.55</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.598</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.662</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.732</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.802</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.869</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.9505</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.048</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.154</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.2805</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.4325</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.5545</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.748</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2.017</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2.2745</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2.5585</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2.8925</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.259999999999999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>3.684</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>4.103499999999999</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>4.5125</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>4.9375</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>5.372999999999999</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5.7975</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>6.2115</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>6.673999999999999</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>7.084000000000001</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>7.5485</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>7.967999999999999</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>8.413</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>8.833000000000001</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>9.285</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>9.7575</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>10.2125</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>10.695</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>11.2075</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>11.66</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>12.1125</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>12.56</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>13.0025</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>13.4275</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>13.9125</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>14.3575</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>14.7425</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>15.165</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>15.6175</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>16.035</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>16.485</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>16.925</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>17.4675</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>18.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-2136123800"/>
-        <c:axId val="2139000088"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-2136123800"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139000088"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2139000088"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2136123800"/>
+        <c:crossAx val="2112149256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2578,13 +1993,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>355600</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -2608,13 +2023,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -2638,43 +2053,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>749300</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>368300</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
@@ -2690,7 +2075,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3021,29 +2406,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M83"/>
+  <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M1" sqref="L1:M1048576"/>
+    <sheetView tabSelected="1" topLeftCell="I9" workbookViewId="0">
+      <selection activeCell="J82" sqref="J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3056,20 +2438,14 @@
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>2</v>
       </c>
-      <c r="L2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>5.837037037</v>
       </c>
@@ -3082,20 +2458,14 @@
       <c r="F3" s="1">
         <v>-0.9</v>
       </c>
-      <c r="H3">
-        <v>1.1254999999999999</v>
-      </c>
-      <c r="I3">
-        <v>6.9999999999999993E-2</v>
-      </c>
-      <c r="L3" s="1">
+      <c r="J3" s="1">
         <v>0.53399999999999992</v>
       </c>
-      <c r="M3" s="1">
+      <c r="K3" s="1">
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>3.587037037</v>
       </c>
@@ -3108,20 +2478,14 @@
       <c r="F4" s="1">
         <v>-3.488888889</v>
       </c>
-      <c r="H4">
-        <v>1.2805</v>
-      </c>
-      <c r="I4">
-        <v>0.13399999999999998</v>
-      </c>
-      <c r="L4" s="1">
+      <c r="J4" s="1">
         <v>1.4240000000000002</v>
       </c>
-      <c r="M4" s="1">
+      <c r="K4" s="1">
         <v>7.350000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>2.32037037</v>
       </c>
@@ -3134,20 +2498,14 @@
       <c r="F5" s="1">
         <v>-6.0027777779999996</v>
       </c>
-      <c r="H5">
-        <v>1.6455000000000002</v>
-      </c>
-      <c r="I5">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="L5" s="1">
+      <c r="J5" s="1">
         <v>2.3980000000000006</v>
       </c>
-      <c r="M5" s="1">
+      <c r="K5" s="1">
         <v>7.350000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>1.1703703700000001</v>
       </c>
@@ -3160,20 +2518,14 @@
       <c r="F6" s="1">
         <v>-8.4499999999999993</v>
       </c>
-      <c r="H6">
-        <v>1.9475000000000002</v>
-      </c>
-      <c r="I6">
-        <v>0.37449999999999994</v>
-      </c>
-      <c r="L6" s="1">
+      <c r="J6" s="1">
         <v>3.4155000000000002</v>
       </c>
-      <c r="M6" s="1">
+      <c r="K6" s="1">
         <v>7.350000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>0.22777777799999999</v>
       </c>
@@ -3186,20 +2538,14 @@
       <c r="F7" s="1">
         <v>-11.186111110000001</v>
       </c>
-      <c r="H7">
-        <v>2.1564999999999999</v>
-      </c>
-      <c r="I7">
-        <v>0.49000000000000005</v>
-      </c>
-      <c r="L7" s="1">
+      <c r="J7" s="1">
         <v>4.5124999999999993</v>
       </c>
-      <c r="M7" s="1">
+      <c r="K7" s="1">
         <v>7.350000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>0.26388888900000002</v>
       </c>
@@ -3212,20 +2558,14 @@
       <c r="F8" s="1">
         <v>-13.65833333</v>
       </c>
-      <c r="H8">
-        <v>2.4655</v>
-      </c>
-      <c r="I8">
-        <v>0.61949999999999994</v>
-      </c>
-      <c r="L8" s="1">
+      <c r="J8" s="1">
         <v>5.5754999999999999</v>
       </c>
-      <c r="M8" s="1">
+      <c r="K8" s="1">
         <v>7.350000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>1.384259259</v>
       </c>
@@ -3238,20 +2578,14 @@
       <c r="F9" s="1">
         <v>-16.158333330000001</v>
       </c>
-      <c r="H9">
-        <v>2.8580000000000001</v>
-      </c>
-      <c r="I9">
-        <v>0.74649999999999994</v>
-      </c>
-      <c r="L9" s="1">
+      <c r="J9" s="1">
         <v>6.596000000000001</v>
       </c>
-      <c r="M9" s="1">
+      <c r="K9" s="1">
         <v>7.350000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>3.8055555559999998</v>
       </c>
@@ -3264,20 +2598,14 @@
       <c r="F10" s="1">
         <v>-18.616666670000001</v>
       </c>
-      <c r="H10">
-        <v>3.3240000000000003</v>
-      </c>
-      <c r="I10">
-        <v>0.86549999999999994</v>
-      </c>
-      <c r="L10" s="1">
+      <c r="J10" s="1">
         <v>7.6359999999999983</v>
       </c>
-      <c r="M10" s="1">
+      <c r="K10" s="1">
         <v>7.350000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>6.8064814809999996</v>
       </c>
@@ -3290,20 +2618,14 @@
       <c r="F11" s="1">
         <v>-21.144444440000001</v>
       </c>
-      <c r="H11">
-        <v>3.9864999999999995</v>
-      </c>
-      <c r="I11">
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="L11" s="1">
+      <c r="J11" s="1">
         <v>8.6864999999999988</v>
       </c>
-      <c r="M11" s="1">
+      <c r="K11" s="1">
         <v>7.350000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>10.56018519</v>
       </c>
@@ -3316,20 +2638,14 @@
       <c r="F12" s="1">
         <v>-23.394444440000001</v>
       </c>
-      <c r="H12">
-        <v>4.8140000000000001</v>
-      </c>
-      <c r="I12">
-        <v>1.1315</v>
-      </c>
-      <c r="L12" s="1">
+      <c r="J12" s="1">
         <v>9.7840000000000007</v>
       </c>
-      <c r="M12" s="1">
+      <c r="K12" s="1">
         <v>7.350000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>14.262037039999999</v>
       </c>
@@ -3342,20 +2658,14 @@
       <c r="F13" s="1">
         <v>-25.811111109999999</v>
       </c>
-      <c r="H13">
-        <v>5.6584999999999992</v>
-      </c>
-      <c r="I13">
-        <v>1.2754999999999999</v>
-      </c>
-      <c r="L13" s="1">
+      <c r="J13" s="1">
         <v>10.870000000000001</v>
       </c>
-      <c r="M13" s="1">
+      <c r="K13" s="1">
         <v>7.350000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>17.60740741</v>
       </c>
@@ -3368,20 +2678,14 @@
       <c r="F14" s="1">
         <v>-28.158333330000001</v>
       </c>
-      <c r="H14">
-        <v>6.4824999999999999</v>
-      </c>
-      <c r="I14">
-        <v>1.4244999999999999</v>
-      </c>
-      <c r="L14" s="1">
+      <c r="J14" s="1">
         <v>11.907</v>
       </c>
-      <c r="M14" s="1">
+      <c r="K14" s="1">
         <v>7.350000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>21.001851850000001</v>
       </c>
@@ -3394,20 +2698,14 @@
       <c r="F15" s="1">
         <v>-30.511111110000002</v>
       </c>
-      <c r="H15">
-        <v>7.2805000000000009</v>
-      </c>
-      <c r="I15">
-        <v>1.5295000000000001</v>
-      </c>
-      <c r="L15" s="1">
+      <c r="J15" s="1">
         <v>12.935500000000001</v>
       </c>
-      <c r="M15" s="1">
+      <c r="K15" s="1">
         <v>7.350000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>23.671296300000002</v>
       </c>
@@ -3420,20 +2718,14 @@
       <c r="F16" s="1">
         <v>-32.877777780000002</v>
       </c>
-      <c r="H16">
-        <v>7.984</v>
-      </c>
-      <c r="I16">
-        <v>1.6604999999999996</v>
-      </c>
-      <c r="L16" s="1">
+      <c r="J16" s="1">
         <v>13.972</v>
       </c>
-      <c r="M16" s="1">
+      <c r="K16" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>25.880555560000001</v>
       </c>
@@ -3446,20 +2738,14 @@
       <c r="F17" s="1">
         <v>-35.44722222</v>
       </c>
-      <c r="H17">
-        <v>8.7424999999999997</v>
-      </c>
-      <c r="I17">
-        <v>1.77</v>
-      </c>
-      <c r="L17" s="1">
+      <c r="J17" s="1">
         <v>14.988000000000003</v>
       </c>
-      <c r="M17" s="1">
+      <c r="K17" s="1">
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>28.210185190000001</v>
       </c>
@@ -3472,20 +2758,14 @@
       <c r="F18" s="1">
         <v>-37.747222219999998</v>
       </c>
-      <c r="H18">
-        <v>9.4995000000000012</v>
-      </c>
-      <c r="I18">
-        <v>1.8994999999999997</v>
-      </c>
-      <c r="L18" s="1">
+      <c r="J18" s="1">
         <v>15.994499999999999</v>
       </c>
-      <c r="M18" s="1">
+      <c r="K18" s="1">
         <v>9.0499999999999997E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>29.970370370000001</v>
       </c>
@@ -3498,20 +2778,14 @@
       <c r="F19" s="1">
         <v>-40.122222219999998</v>
       </c>
-      <c r="H19">
-        <v>10.172999999999998</v>
-      </c>
-      <c r="I19">
-        <v>2.0694999999999997</v>
-      </c>
-      <c r="L19" s="1">
+      <c r="J19" s="1">
         <v>17.000999999999998</v>
       </c>
-      <c r="M19" s="1">
+      <c r="K19" s="1">
         <v>0.10700000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>31.72314815</v>
       </c>
@@ -3524,20 +2798,14 @@
       <c r="F20" s="1">
         <v>-42.483333330000001</v>
       </c>
-      <c r="H20">
-        <v>10.7965</v>
-      </c>
-      <c r="I20">
-        <v>2.1834999999999996</v>
-      </c>
-      <c r="L20" s="1">
+      <c r="J20" s="1">
         <v>17.961000000000002</v>
       </c>
-      <c r="M20" s="1">
+      <c r="K20" s="1">
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>33.381481479999998</v>
       </c>
@@ -3550,20 +2818,14 @@
       <c r="F21" s="1">
         <v>-44.655555560000003</v>
       </c>
-      <c r="H21">
-        <v>11.379</v>
-      </c>
-      <c r="I21">
-        <v>2.2865000000000002</v>
-      </c>
-      <c r="L21" s="1">
+      <c r="J21" s="1">
         <v>18.97</v>
       </c>
-      <c r="M21" s="1">
+      <c r="K21" s="1">
         <v>0.14350000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>34.690740740000003</v>
       </c>
@@ -3576,20 +2838,14 @@
       <c r="F22" s="1">
         <v>-47.038888890000003</v>
       </c>
-      <c r="H22">
-        <v>11.933499999999999</v>
-      </c>
-      <c r="I22">
-        <v>2.4144999999999999</v>
-      </c>
-      <c r="L22" s="1">
+      <c r="J22" s="1">
         <v>19.995000000000001</v>
       </c>
-      <c r="M22" s="1">
+      <c r="K22" s="1">
         <v>0.16750000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>36.686111109999999</v>
       </c>
@@ -3602,20 +2858,14 @@
       <c r="F23" s="1">
         <v>-49.194444439999998</v>
       </c>
-      <c r="H23">
-        <v>12.5115</v>
-      </c>
-      <c r="I23">
-        <v>2.5379999999999994</v>
-      </c>
-      <c r="L23" s="1">
+      <c r="J23" s="1">
         <v>21.016499999999997</v>
       </c>
-      <c r="M23" s="1">
+      <c r="K23" s="1">
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>38.218518520000003</v>
       </c>
@@ -3628,20 +2878,14 @@
       <c r="F24" s="1">
         <v>-51.033333329999998</v>
       </c>
-      <c r="H24">
-        <v>13.101499999999998</v>
-      </c>
-      <c r="I24">
-        <v>2.6760000000000002</v>
-      </c>
-      <c r="L24" s="1">
+      <c r="J24" s="1">
         <v>21.9635</v>
       </c>
-      <c r="M24" s="1">
+      <c r="K24" s="1">
         <v>0.24299999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>38.924999999999997</v>
       </c>
@@ -3654,20 +2898,14 @@
       <c r="F25" s="1">
         <v>-52.877777780000002</v>
       </c>
-      <c r="H25">
-        <v>13.681499999999996</v>
-      </c>
-      <c r="I25">
-        <v>2.8125000000000004</v>
-      </c>
-      <c r="L25" s="1">
+      <c r="J25" s="1">
         <v>22.908000000000001</v>
       </c>
-      <c r="M25" s="1">
+      <c r="K25" s="1">
         <v>0.28749999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>39.923148150000003</v>
       </c>
@@ -3680,20 +2918,14 @@
       <c r="F26" s="1">
         <v>-54.880555559999998</v>
       </c>
-      <c r="H26">
-        <v>14.203999999999999</v>
-      </c>
-      <c r="I26">
-        <v>2.9370000000000003</v>
-      </c>
-      <c r="L26" s="1">
+      <c r="J26" s="1">
         <v>23.9</v>
       </c>
-      <c r="M26" s="1">
+      <c r="K26" s="1">
         <v>0.33099999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>41.080555560000001</v>
       </c>
@@ -3706,20 +2938,14 @@
       <c r="F27" s="1">
         <v>-56.916666669999998</v>
       </c>
-      <c r="H27">
-        <v>14.696000000000002</v>
-      </c>
-      <c r="I27">
-        <v>3.05</v>
-      </c>
-      <c r="L27" s="1">
+      <c r="J27" s="1">
         <v>24.862500000000004</v>
       </c>
-      <c r="M27" s="1">
+      <c r="K27" s="1">
         <v>0.37449999999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>42.602777779999997</v>
       </c>
@@ -3732,20 +2958,14 @@
       <c r="F28" s="1">
         <v>-58.538888890000003</v>
       </c>
-      <c r="H28">
-        <v>15.222999999999999</v>
-      </c>
-      <c r="I28">
-        <v>3.1524999999999999</v>
-      </c>
-      <c r="L28" s="1">
+      <c r="J28" s="1">
         <v>25.855499999999999</v>
       </c>
-      <c r="M28" s="1">
+      <c r="K28" s="1">
         <v>0.41</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>43.81296296</v>
       </c>
@@ -3758,20 +2978,14 @@
       <c r="F29" s="1">
         <v>-60.472222219999999</v>
       </c>
-      <c r="H29">
-        <v>15.806999999999999</v>
-      </c>
-      <c r="I29">
-        <v>3.2505000000000002</v>
-      </c>
-      <c r="L29" s="1">
+      <c r="J29" s="1">
         <v>26.862000000000002</v>
       </c>
-      <c r="M29" s="1">
+      <c r="K29" s="1">
         <v>0.442</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>44.829629629999999</v>
       </c>
@@ -3784,20 +2998,14 @@
       <c r="F30" s="1">
         <v>-62.063888890000001</v>
       </c>
-      <c r="H30">
-        <v>16.438500000000001</v>
-      </c>
-      <c r="I30">
-        <v>3.3664999999999998</v>
-      </c>
-      <c r="L30" s="1">
+      <c r="J30" s="1">
         <v>27.809499999999996</v>
       </c>
-      <c r="M30" s="1">
+      <c r="K30" s="1">
         <v>0.48499999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>45.380555559999998</v>
       </c>
@@ -3810,20 +3018,14 @@
       <c r="F31" s="1">
         <v>-63.475000000000001</v>
       </c>
-      <c r="H31">
-        <v>17.031500000000001</v>
-      </c>
-      <c r="I31">
-        <v>3.4834999999999994</v>
-      </c>
-      <c r="L31" s="1">
+      <c r="J31" s="1">
         <v>28.8185</v>
       </c>
-      <c r="M31" s="1">
+      <c r="K31" s="1">
         <v>0.51000000000000012</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>46.137962960000003</v>
       </c>
@@ -3836,20 +3038,14 @@
       <c r="F32" s="1">
         <v>-64.780555559999996</v>
       </c>
-      <c r="H32">
-        <v>17.618499999999997</v>
-      </c>
-      <c r="I32">
-        <v>3.5879999999999996</v>
-      </c>
-      <c r="L32" s="1">
+      <c r="J32" s="1">
         <v>29.756499999999999</v>
       </c>
-      <c r="M32" s="1">
+      <c r="K32" s="1">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>48.820370369999999</v>
       </c>
@@ -3862,20 +3058,14 @@
       <c r="F33" s="1">
         <v>-66.291666669999998</v>
       </c>
-      <c r="H33">
-        <v>18.151500000000002</v>
-      </c>
-      <c r="I33">
-        <v>3.7145000000000001</v>
-      </c>
-      <c r="L33" s="1">
+      <c r="J33" s="1">
         <v>30.727999999999998</v>
       </c>
-      <c r="M33" s="1">
+      <c r="K33" s="1">
         <v>0.59800000000000009</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>51.15185185</v>
       </c>
@@ -3888,20 +3078,14 @@
       <c r="F34" s="1">
         <v>-67.158333330000005</v>
       </c>
-      <c r="H34">
-        <v>18.701499999999999</v>
-      </c>
-      <c r="I34">
-        <v>3.8059999999999996</v>
-      </c>
-      <c r="L34" s="1">
+      <c r="J34" s="1">
         <v>31.641499999999997</v>
       </c>
-      <c r="M34" s="1">
+      <c r="K34" s="1">
         <v>0.66199999999999992</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>53.426851849999998</v>
       </c>
@@ -3914,20 +3098,14 @@
       <c r="F35" s="1">
         <v>-68.30277778</v>
       </c>
-      <c r="H35">
-        <v>19.356999999999999</v>
-      </c>
-      <c r="I35">
-        <v>3.9135000000000004</v>
-      </c>
-      <c r="L35" s="1">
+      <c r="J35" s="1">
         <v>32.564499999999995</v>
       </c>
-      <c r="M35" s="1">
+      <c r="K35" s="1">
         <v>0.73199999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>55.41018519</v>
       </c>
@@ -3940,20 +3118,14 @@
       <c r="F36" s="1">
         <v>-68.69722222</v>
       </c>
-      <c r="H36">
-        <v>20.037500000000001</v>
-      </c>
-      <c r="I36">
-        <v>4.0295000000000005</v>
-      </c>
-      <c r="L36" s="1">
+      <c r="J36" s="1">
         <v>33.468000000000004</v>
       </c>
-      <c r="M36" s="1">
+      <c r="K36" s="1">
         <v>0.80199999999999994</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>57.593518520000003</v>
       </c>
@@ -3966,20 +3138,14 @@
       <c r="F37" s="1">
         <v>-69.258333329999999</v>
       </c>
-      <c r="H37">
-        <v>20.665500000000002</v>
-      </c>
-      <c r="I37">
-        <v>4.1214999999999993</v>
-      </c>
-      <c r="L37" s="1">
+      <c r="J37" s="1">
         <v>34.338000000000008</v>
       </c>
-      <c r="M37" s="1">
+      <c r="K37" s="1">
         <v>0.86899999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>59.659259259999999</v>
       </c>
@@ -3992,20 +3158,14 @@
       <c r="F38" s="1">
         <v>-70.080555559999993</v>
       </c>
-      <c r="H38">
-        <v>21.348499999999998</v>
-      </c>
-      <c r="I38">
-        <v>4.2155000000000005</v>
-      </c>
-      <c r="L38" s="1">
+      <c r="J38" s="1">
         <v>35.203500000000005</v>
       </c>
-      <c r="M38" s="1">
+      <c r="K38" s="1">
         <v>0.9504999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:11">
       <c r="A39" s="1">
         <v>61.972222219999999</v>
       </c>
@@ -4018,20 +3178,14 @@
       <c r="F39" s="1">
         <v>-70.205555559999993</v>
       </c>
-      <c r="H39">
-        <v>21.933</v>
-      </c>
-      <c r="I39">
-        <v>4.3250000000000002</v>
-      </c>
-      <c r="L39" s="1">
+      <c r="J39" s="1">
         <v>36.034500000000001</v>
       </c>
-      <c r="M39" s="1">
+      <c r="K39" s="1">
         <v>1.048</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:11">
       <c r="A40" s="1">
         <v>64.648148149999997</v>
       </c>
@@ -4044,20 +3198,14 @@
       <c r="F40" s="1">
         <v>-70.458333330000002</v>
       </c>
-      <c r="H40">
-        <v>22.531500000000001</v>
-      </c>
-      <c r="I40">
-        <v>4.4215</v>
-      </c>
-      <c r="L40" s="1">
+      <c r="J40" s="1">
         <v>36.877500000000005</v>
       </c>
-      <c r="M40" s="1">
+      <c r="K40" s="1">
         <v>1.1540000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:11">
       <c r="A41" s="1">
         <v>67.610185189999996</v>
       </c>
@@ -4070,20 +3218,14 @@
       <c r="F41" s="1">
         <v>-70.533333330000005</v>
       </c>
-      <c r="H41">
-        <v>23.094000000000001</v>
-      </c>
-      <c r="I41">
-        <v>4.5270000000000001</v>
-      </c>
-      <c r="L41" s="1">
+      <c r="J41" s="1">
         <v>37.73299999999999</v>
       </c>
-      <c r="M41" s="1">
+      <c r="K41" s="1">
         <v>1.2805</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:11">
       <c r="A42" s="1">
         <v>70.911111109999993</v>
       </c>
@@ -4096,20 +3238,14 @@
       <c r="F42" s="1">
         <v>-69.188888890000001</v>
       </c>
-      <c r="H42">
-        <v>23.7075</v>
-      </c>
-      <c r="I42">
-        <v>4.6385000000000005</v>
-      </c>
-      <c r="L42" s="1">
+      <c r="J42" s="1">
         <v>38.450000000000003</v>
       </c>
-      <c r="M42" s="1">
+      <c r="K42" s="1">
         <v>1.4324999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:11">
       <c r="A43" s="1">
         <v>74.037037040000001</v>
       </c>
@@ -4122,20 +3258,14 @@
       <c r="F43" s="1">
         <v>-67.974999999999994</v>
       </c>
-      <c r="H43">
-        <v>24.290500000000002</v>
-      </c>
-      <c r="I43">
-        <v>4.7245000000000008</v>
-      </c>
-      <c r="L43" s="1">
+      <c r="J43" s="1">
         <v>39.133500000000005</v>
       </c>
-      <c r="M43" s="1">
+      <c r="K43" s="1">
         <v>1.5545</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:11">
       <c r="A44" s="1">
         <v>77.119444439999995</v>
       </c>
@@ -4148,20 +3278,14 @@
       <c r="F44" s="1">
         <v>-65.016666670000006</v>
       </c>
-      <c r="H44">
-        <v>24.9345</v>
-      </c>
-      <c r="I44">
-        <v>4.8295000000000012</v>
-      </c>
-      <c r="L44" s="1">
+      <c r="J44" s="1">
         <v>39.711500000000001</v>
       </c>
-      <c r="M44" s="1">
+      <c r="K44" s="1">
         <v>1.7479999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:11">
       <c r="A45" s="1">
         <v>80.274074069999998</v>
       </c>
@@ -4174,20 +3298,14 @@
       <c r="F45" s="1">
         <v>-61.872222219999998</v>
       </c>
-      <c r="H45">
-        <v>25.494500000000002</v>
-      </c>
-      <c r="I45">
-        <v>4.9124999999999996</v>
-      </c>
-      <c r="L45" s="1">
+      <c r="J45" s="1">
         <v>40.224000000000004</v>
       </c>
-      <c r="M45" s="1">
+      <c r="K45" s="1">
         <v>2.0170000000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:11">
       <c r="A46" s="1">
         <v>83.829629629999999</v>
       </c>
@@ -4200,20 +3318,14 @@
       <c r="F46" s="1">
         <v>-57.936111109999999</v>
       </c>
-      <c r="H46">
-        <v>26.109000000000002</v>
-      </c>
-      <c r="I46">
-        <v>5.0040000000000004</v>
-      </c>
-      <c r="L46" s="1">
+      <c r="J46" s="1">
         <v>40.678999999999995</v>
       </c>
-      <c r="M46" s="1">
+      <c r="K46" s="1">
         <v>2.2745000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:11">
       <c r="A47" s="1">
         <v>86.663888889999996</v>
       </c>
@@ -4226,20 +3338,14 @@
       <c r="F47" s="1">
         <v>-52.725000000000001</v>
       </c>
-      <c r="H47">
-        <v>26.691499999999998</v>
-      </c>
-      <c r="I47">
-        <v>5.0910000000000002</v>
-      </c>
-      <c r="L47" s="1">
+      <c r="J47" s="1">
         <v>40.988</v>
       </c>
-      <c r="M47" s="1">
+      <c r="K47" s="1">
         <v>2.5585</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:11">
       <c r="A48" s="1">
         <v>89.92777778</v>
       </c>
@@ -4252,20 +3358,14 @@
       <c r="F48" s="1">
         <v>-46.705555560000001</v>
       </c>
-      <c r="H48">
-        <v>27.316500000000001</v>
-      </c>
-      <c r="I48">
-        <v>5.1680000000000001</v>
-      </c>
-      <c r="L48" s="1">
+      <c r="J48" s="1">
         <v>41.210999999999999</v>
       </c>
-      <c r="M48" s="1">
+      <c r="K48" s="1">
         <v>2.8925000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:11">
       <c r="A49" s="1">
         <v>93.212037039999998</v>
       </c>
@@ -4278,20 +3378,14 @@
       <c r="F49" s="1">
         <v>-40.255555559999998</v>
       </c>
-      <c r="H49">
-        <v>27.9755</v>
-      </c>
-      <c r="I49">
-        <v>5.2759999999999998</v>
-      </c>
-      <c r="L49" s="1">
+      <c r="J49" s="1">
         <v>41.393999999999991</v>
       </c>
-      <c r="M49" s="1">
+      <c r="K49" s="1">
         <v>3.2599999999999993</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:11">
       <c r="A50" s="1">
         <v>95.592592589999995</v>
       </c>
@@ -4304,20 +3398,14 @@
       <c r="F50" s="1">
         <v>-33.797222220000002</v>
       </c>
-      <c r="H50">
-        <v>28.579500000000003</v>
-      </c>
-      <c r="I50">
-        <v>5.3340000000000005</v>
-      </c>
-      <c r="L50" s="1">
+      <c r="J50" s="1">
         <v>41.528499999999994</v>
       </c>
-      <c r="M50" s="1">
+      <c r="K50" s="1">
         <v>3.6840000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:11">
       <c r="A51" s="1">
         <v>98.761111110000002</v>
       </c>
@@ -4330,20 +3418,14 @@
       <c r="F51" s="1">
         <v>-26.71944444</v>
       </c>
-      <c r="H51">
-        <v>29.276999999999997</v>
-      </c>
-      <c r="I51">
-        <v>5.4105000000000008</v>
-      </c>
-      <c r="L51" s="1">
+      <c r="J51" s="1">
         <v>41.666000000000004</v>
       </c>
-      <c r="M51" s="1">
+      <c r="K51" s="1">
         <v>4.1034999999999995</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:11">
       <c r="A52" s="1">
         <v>102.6027778</v>
       </c>
@@ -4356,20 +3438,14 @@
       <c r="F52" s="1">
         <v>-19.430555559999998</v>
       </c>
-      <c r="H52">
-        <v>29.939000000000004</v>
-      </c>
-      <c r="I52">
-        <v>5.48</v>
-      </c>
-      <c r="L52" s="1">
+      <c r="J52" s="1">
         <v>41.762500000000003</v>
       </c>
-      <c r="M52" s="1">
+      <c r="K52" s="1">
         <v>4.5125000000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:11">
       <c r="A53" s="1">
         <v>106.5546296</v>
       </c>
@@ -4382,20 +3458,14 @@
       <c r="F53" s="1">
         <v>-12.38888889</v>
       </c>
-      <c r="H53">
-        <v>30.659000000000002</v>
-      </c>
-      <c r="I53">
-        <v>5.5434999999999999</v>
-      </c>
-      <c r="L53" s="1">
+      <c r="J53" s="1">
         <v>41.853999999999999</v>
       </c>
-      <c r="M53" s="1">
+      <c r="K53" s="1">
         <v>4.9374999999999991</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:11">
       <c r="A54" s="1">
         <v>110.3527778</v>
       </c>
@@ -4408,20 +3478,14 @@
       <c r="F54" s="1">
         <v>-5.3388888889999997</v>
       </c>
-      <c r="H54">
-        <v>31.387</v>
-      </c>
-      <c r="I54">
-        <v>5.6149999999999993</v>
-      </c>
-      <c r="L54" s="1">
+      <c r="J54" s="1">
         <v>41.917999999999999</v>
       </c>
-      <c r="M54" s="1">
+      <c r="K54" s="1">
         <v>5.3729999999999993</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:11">
       <c r="A55" s="1">
         <v>114.1694444</v>
       </c>
@@ -4434,20 +3498,14 @@
       <c r="F55" s="1">
         <v>1.55</v>
       </c>
-      <c r="H55">
-        <v>32.08</v>
-      </c>
-      <c r="I55">
-        <v>5.6829999999999998</v>
-      </c>
-      <c r="L55" s="1">
+      <c r="J55" s="1">
         <v>41.95</v>
       </c>
-      <c r="M55" s="1">
+      <c r="K55" s="1">
         <v>5.7975000000000003</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:11">
       <c r="A56" s="1">
         <v>117.67314810000001</v>
       </c>
@@ -4460,20 +3518,14 @@
       <c r="F56" s="1">
         <v>9.0638888889999993</v>
       </c>
-      <c r="H56">
-        <v>32.907499999999999</v>
-      </c>
-      <c r="I56">
-        <v>5.7214999999999989</v>
-      </c>
-      <c r="L56" s="1">
+      <c r="J56" s="1">
         <v>41.983999999999995</v>
       </c>
-      <c r="M56" s="1">
+      <c r="K56" s="1">
         <v>6.2115</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:11">
       <c r="A57" s="1">
         <v>121.3537037</v>
       </c>
@@ -4486,20 +3538,14 @@
       <c r="F57" s="1">
         <v>16.247222220000001</v>
       </c>
-      <c r="H57">
-        <v>33.752499999999998</v>
-      </c>
-      <c r="I57">
-        <v>5.7750000000000004</v>
-      </c>
-      <c r="L57" s="1">
+      <c r="J57" s="1">
         <v>41.988999999999997</v>
       </c>
-      <c r="M57" s="1">
+      <c r="K57" s="1">
         <v>6.6739999999999995</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:11">
       <c r="A58" s="1">
         <v>125.8064815</v>
       </c>
@@ -4512,20 +3558,14 @@
       <c r="F58" s="1">
         <v>23.269444440000001</v>
       </c>
-      <c r="H58">
-        <v>34.588999999999999</v>
-      </c>
-      <c r="I58">
-        <v>5.8150000000000004</v>
-      </c>
-      <c r="L58" s="1">
+      <c r="J58" s="1">
         <v>41.993000000000002</v>
       </c>
-      <c r="M58" s="1">
+      <c r="K58" s="1">
         <v>7.0840000000000005</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:11">
       <c r="A59" s="1">
         <v>130.5166667</v>
       </c>
@@ -4538,20 +3578,14 @@
       <c r="F59" s="1">
         <v>30.97777778</v>
       </c>
-      <c r="H59">
-        <v>35.461500000000001</v>
-      </c>
-      <c r="I59">
-        <v>5.8445</v>
-      </c>
-      <c r="L59" s="1">
+      <c r="J59" s="1">
         <v>41.996500000000005</v>
       </c>
-      <c r="M59" s="1">
+      <c r="K59" s="1">
         <v>7.5484999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:11">
       <c r="A60" s="1">
         <v>135.4731481</v>
       </c>
@@ -4564,20 +3598,14 @@
       <c r="F60" s="1">
         <v>39.21388889</v>
       </c>
-      <c r="H60">
-        <v>36.425499999999985</v>
-      </c>
-      <c r="I60">
-        <v>5.8650000000000002</v>
-      </c>
-      <c r="L60" s="1">
+      <c r="J60" s="1">
         <v>41.999000000000002</v>
       </c>
-      <c r="M60" s="1">
+      <c r="K60" s="1">
         <v>7.9679999999999991</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:11">
       <c r="A61" s="1">
         <v>140.4481481</v>
       </c>
@@ -4590,20 +3618,14 @@
       <c r="F61" s="1">
         <v>46.255555559999998</v>
       </c>
-      <c r="H61">
-        <v>37.536000000000001</v>
-      </c>
-      <c r="I61">
-        <v>5.883</v>
-      </c>
-      <c r="L61" s="1">
+      <c r="J61" s="1">
         <v>41.999000000000002</v>
       </c>
-      <c r="M61" s="1">
+      <c r="K61" s="1">
         <v>8.4130000000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:11">
       <c r="A62" s="1">
         <v>144.77129629999999</v>
       </c>
@@ -4616,20 +3638,14 @@
       <c r="F62" s="1">
         <v>53.46388889</v>
       </c>
-      <c r="H62">
-        <v>38.693000000000005</v>
-      </c>
-      <c r="I62">
-        <v>5.9039999999999999</v>
-      </c>
-      <c r="L62" s="1">
+      <c r="J62" s="1">
         <v>41.999000000000002</v>
       </c>
-      <c r="M62" s="1">
+      <c r="K62" s="1">
         <v>8.833000000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:11">
       <c r="A63" s="1">
         <v>149.9185185</v>
       </c>
@@ -4642,20 +3658,14 @@
       <c r="F63" s="1">
         <v>61.33888889</v>
       </c>
-      <c r="H63">
-        <v>39.866</v>
-      </c>
-      <c r="I63">
-        <v>5.9254999999999995</v>
-      </c>
-      <c r="L63" s="1">
+      <c r="J63" s="1">
         <v>42</v>
       </c>
-      <c r="M63" s="1">
+      <c r="K63" s="1">
         <v>9.2850000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:11">
       <c r="A64" s="1">
         <v>154.5537037</v>
       </c>
@@ -4668,20 +3678,14 @@
       <c r="F64" s="1">
         <v>68.769444440000001</v>
       </c>
-      <c r="H64">
-        <v>41.044499999999992</v>
-      </c>
-      <c r="I64">
-        <v>5.9435000000000011</v>
-      </c>
-      <c r="L64" s="1">
+      <c r="J64" s="1">
         <v>42</v>
       </c>
-      <c r="M64" s="1">
+      <c r="K64" s="1">
         <v>9.7575000000000003</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:11">
       <c r="A65" s="1">
         <v>159.90648150000001</v>
       </c>
@@ -4694,20 +3698,14 @@
       <c r="F65" s="1">
         <v>76.616666670000001</v>
       </c>
-      <c r="H65">
-        <v>42.163500000000006</v>
-      </c>
-      <c r="I65">
-        <v>5.9620000000000006</v>
-      </c>
-      <c r="L65" s="1">
+      <c r="J65" s="1">
         <v>42</v>
       </c>
-      <c r="M65" s="1">
+      <c r="K65" s="1">
         <v>10.2125</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:11">
       <c r="A66" s="1">
         <v>166.1074074</v>
       </c>
@@ -4720,20 +3718,14 @@
       <c r="F66" s="1">
         <v>84.825000000000003</v>
       </c>
-      <c r="H66">
-        <v>43.381999999999998</v>
-      </c>
-      <c r="I66">
-        <v>5.9689999999999994</v>
-      </c>
-      <c r="L66" s="1">
+      <c r="J66" s="1">
         <v>42</v>
       </c>
-      <c r="M66" s="1">
+      <c r="K66" s="1">
         <v>10.695</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:11">
       <c r="A67" s="1">
         <v>172.29722219999999</v>
       </c>
@@ -4746,20 +3738,14 @@
       <c r="F67" s="1">
         <v>91.408333330000005</v>
       </c>
-      <c r="H67">
-        <v>44.548000000000002</v>
-      </c>
-      <c r="I67">
-        <v>5.9760000000000009</v>
-      </c>
-      <c r="L67" s="1">
+      <c r="J67" s="1">
         <v>42</v>
       </c>
-      <c r="M67" s="1">
+      <c r="K67" s="1">
         <v>11.2075</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:11">
       <c r="A68" s="1">
         <v>178.4916667</v>
       </c>
@@ -4772,20 +3758,14 @@
       <c r="F68" s="1">
         <v>98.625</v>
       </c>
-      <c r="H68">
-        <v>45.755500000000005</v>
-      </c>
-      <c r="I68">
-        <v>5.979000000000001</v>
-      </c>
-      <c r="L68" s="1">
+      <c r="J68" s="1">
         <v>42</v>
       </c>
-      <c r="M68" s="1">
+      <c r="K68" s="1">
         <v>11.66</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:11">
       <c r="A69" s="1">
         <v>184.75648150000001</v>
       </c>
@@ -4798,20 +3778,14 @@
       <c r="F69" s="1">
         <v>107.25</v>
       </c>
-      <c r="H69">
-        <v>46.9405</v>
-      </c>
-      <c r="I69">
-        <v>5.9880000000000004</v>
-      </c>
-      <c r="L69" s="1">
+      <c r="J69" s="1">
         <v>42</v>
       </c>
-      <c r="M69" s="1">
+      <c r="K69" s="1">
         <v>12.112499999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:11">
       <c r="A70" s="1">
         <v>190.93240739999999</v>
       </c>
@@ -4824,20 +3798,14 @@
       <c r="F70" s="1">
         <v>115.04166669999999</v>
       </c>
-      <c r="H70">
-        <v>48.143999999999998</v>
-      </c>
-      <c r="I70">
-        <v>5.9909999999999997</v>
-      </c>
-      <c r="L70" s="1">
+      <c r="J70" s="1">
         <v>42</v>
       </c>
-      <c r="M70" s="1">
+      <c r="K70" s="1">
         <v>12.559999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:11">
       <c r="A71" s="1">
         <v>197.12870369999999</v>
       </c>
@@ -4850,20 +3818,14 @@
       <c r="F71" s="1">
         <v>122.5</v>
       </c>
-      <c r="H71">
-        <v>49.349499999999999</v>
-      </c>
-      <c r="I71">
-        <v>5.9930000000000003</v>
-      </c>
-      <c r="L71" s="1">
+      <c r="J71" s="1">
         <v>42</v>
       </c>
-      <c r="M71" s="1">
+      <c r="K71" s="1">
         <v>13.002500000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:11">
       <c r="A72" s="1">
         <v>202.82499999999999</v>
       </c>
@@ -4876,20 +3838,14 @@
       <c r="F72" s="1">
         <v>129.625</v>
       </c>
-      <c r="H72">
-        <v>50.378499999999995</v>
-      </c>
-      <c r="I72">
-        <v>5.9935</v>
-      </c>
-      <c r="L72" s="1">
+      <c r="J72" s="1">
         <v>42</v>
       </c>
-      <c r="M72" s="1">
+      <c r="K72" s="1">
         <v>13.4275</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:11">
       <c r="A73" s="1">
         <v>207.23796300000001</v>
       </c>
@@ -4902,20 +3858,14 @@
       <c r="F73" s="1">
         <v>137.66666670000001</v>
       </c>
-      <c r="H73">
-        <v>51.356000000000009</v>
-      </c>
-      <c r="I73">
-        <v>5.9939999999999998</v>
-      </c>
-      <c r="L73" s="1">
+      <c r="J73" s="1">
         <v>42</v>
       </c>
-      <c r="M73" s="1">
+      <c r="K73" s="1">
         <v>13.9125</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:11">
       <c r="A74" s="1">
         <v>210.39537039999999</v>
       </c>
@@ -4928,20 +3878,14 @@
       <c r="F74" s="1">
         <v>145.04166670000001</v>
       </c>
-      <c r="H74">
-        <v>52.110500000000002</v>
-      </c>
-      <c r="I74">
-        <v>5.9960000000000004</v>
-      </c>
-      <c r="L74" s="1">
+      <c r="J74" s="1">
         <v>42</v>
       </c>
-      <c r="M74" s="1">
+      <c r="K74" s="1">
         <v>14.357500000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:11">
       <c r="A75" s="1">
         <v>211.89814809999999</v>
       </c>
@@ -4954,20 +3898,14 @@
       <c r="F75" s="1">
         <v>153.20833329999999</v>
       </c>
-      <c r="H75">
-        <v>52.737499999999997</v>
-      </c>
-      <c r="I75">
-        <v>5.9969999999999999</v>
-      </c>
-      <c r="L75" s="1">
+      <c r="J75" s="1">
         <v>42</v>
       </c>
-      <c r="M75" s="1">
+      <c r="K75" s="1">
         <v>14.742500000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:11">
       <c r="A76" s="1">
         <v>211.9990741</v>
       </c>
@@ -4980,20 +3918,14 @@
       <c r="F76" s="1">
         <v>160.54166670000001</v>
       </c>
-      <c r="H76">
-        <v>53.215499999999999</v>
-      </c>
-      <c r="I76">
-        <v>6</v>
-      </c>
-      <c r="L76" s="1">
+      <c r="J76" s="1">
         <v>42</v>
       </c>
-      <c r="M76" s="1">
+      <c r="K76" s="1">
         <v>15.165000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:11">
       <c r="A77" s="1">
         <v>210.962963</v>
       </c>
@@ -5006,20 +3938,14 @@
       <c r="F77" s="1">
         <v>167.83333329999999</v>
       </c>
-      <c r="H77">
-        <v>53.563000000000002</v>
-      </c>
-      <c r="I77">
-        <v>6</v>
-      </c>
-      <c r="L77" s="1">
+      <c r="J77" s="1">
         <v>42</v>
       </c>
-      <c r="M77" s="1">
+      <c r="K77" s="1">
         <v>15.617499999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:11">
       <c r="A78" s="1">
         <v>209.31944440000001</v>
       </c>
@@ -5032,20 +3958,14 @@
       <c r="F78" s="1">
         <v>174.29166670000001</v>
       </c>
-      <c r="H78">
-        <v>53.781500000000008</v>
-      </c>
-      <c r="I78">
-        <v>6</v>
-      </c>
-      <c r="L78" s="1">
+      <c r="J78" s="1">
         <v>42</v>
       </c>
-      <c r="M78" s="1">
+      <c r="K78" s="1">
         <v>16.035</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:11">
       <c r="A79" s="1">
         <v>207.36944439999999</v>
       </c>
@@ -5058,20 +3978,14 @@
       <c r="F79" s="1">
         <v>181.25</v>
       </c>
-      <c r="H79">
-        <v>53.913499999999999</v>
-      </c>
-      <c r="I79">
-        <v>6</v>
-      </c>
-      <c r="L79" s="1">
+      <c r="J79" s="1">
         <v>42</v>
       </c>
-      <c r="M79" s="1">
+      <c r="K79" s="1">
         <v>16.484999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:11">
       <c r="A80" s="1">
         <v>204.9453704</v>
       </c>
@@ -5084,20 +3998,14 @@
       <c r="F80" s="1">
         <v>187.58333329999999</v>
       </c>
-      <c r="H80">
-        <v>53.969500000000004</v>
-      </c>
-      <c r="I80">
-        <v>6</v>
-      </c>
-      <c r="L80" s="1">
+      <c r="J80" s="1">
         <v>42</v>
       </c>
-      <c r="M80" s="1">
+      <c r="K80" s="1">
         <v>16.925000000000004</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:11">
       <c r="A81" s="1">
         <v>202.48796300000001</v>
       </c>
@@ -5110,20 +4018,14 @@
       <c r="F81" s="1">
         <v>193.54166670000001</v>
       </c>
-      <c r="H81">
-        <v>54</v>
-      </c>
-      <c r="I81">
-        <v>6</v>
-      </c>
-      <c r="L81" s="1">
+      <c r="J81" s="1">
         <v>42</v>
       </c>
-      <c r="M81" s="1">
+      <c r="K81" s="1">
         <v>17.467499999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:11">
       <c r="A82" s="1">
         <v>200</v>
       </c>
@@ -5136,22 +4038,16 @@
       <c r="F82" s="1">
         <v>200</v>
       </c>
-      <c r="H82">
-        <v>54</v>
-      </c>
-      <c r="I82">
-        <v>6</v>
-      </c>
-      <c r="L82" s="1">
+      <c r="J82" s="1">
         <v>42</v>
       </c>
-      <c r="M82" s="1">
+      <c r="K82" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
-      <c r="L83" s="1"/>
-      <c r="M83" s="1"/>
+    <row r="83" spans="1:11">
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
